--- a/Excel/Room.xlsx
+++ b/Excel/Room.xlsx
@@ -166,16 +166,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,150 +375,150 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N:N"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="2" t="n">
+      <c r="I3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="3" t="n">
         <v>-1</v>
       </c>
     </row>
